--- a/src/main/resources/work-dir/time_sheet.xlsx
+++ b/src/main/resources/work-dir/time_sheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\prog.academy\final_project\medsalary\src\main\resources\work-dir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\med_salary_project\med_salary\src\main\resources\work-dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25A567D-DE86-42A9-8F00-20EE18807D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$1287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1287</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3143,7 +3144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="165" formatCode="#0.0000"/>
@@ -3226,7 +3227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3503,11 +3504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
+      <selection activeCell="G1078" sqref="G1078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,7 +3859,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>861</v>
       </c>
@@ -3879,7 +3880,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>396</v>
       </c>
@@ -3900,7 +3901,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>993</v>
       </c>
@@ -3920,8 +3921,12 @@
         <v>73.150000000000006</v>
       </c>
       <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f>F19/E19</f>
+        <v>0.90476190476190488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>1110</v>
       </c>
@@ -3941,8 +3946,12 @@
         <v>48</v>
       </c>
       <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" ref="H20:H21" si="0">F20/E20</f>
+        <v>1.1872372000989364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>1123</v>
       </c>
@@ -3962,8 +3971,12 @@
         <v>73.150000000000006</v>
       </c>
       <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.90476190476190488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>888</v>
       </c>
@@ -3984,7 +3997,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>1094</v>
       </c>
@@ -4005,7 +4018,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>208</v>
       </c>
@@ -4026,7 +4039,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>894</v>
       </c>
@@ -4047,7 +4060,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>924</v>
       </c>
@@ -4068,7 +4081,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>386</v>
       </c>
@@ -4089,7 +4102,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>159</v>
       </c>
@@ -4110,7 +4123,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>29</v>
       </c>
@@ -4131,7 +4144,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>659</v>
       </c>
@@ -4152,7 +4165,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>218</v>
       </c>
@@ -4173,7 +4186,7 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>527</v>
       </c>
@@ -14285,7 +14298,7 @@
       </c>
       <c r="G512" s="13"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="7">
         <v>986</v>
       </c>
@@ -14306,7 +14319,7 @@
       </c>
       <c r="G513" s="13"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="7">
         <v>689</v>
       </c>
@@ -14330,7 +14343,7 @@
       </c>
       <c r="H514" s="11"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="7">
         <v>753</v>
       </c>
@@ -14351,7 +14364,7 @@
       </c>
       <c r="G515" s="13"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="7">
         <v>176</v>
       </c>
@@ -14372,7 +14385,7 @@
       </c>
       <c r="G516" s="13"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="7">
         <v>446</v>
       </c>
@@ -14393,7 +14406,7 @@
       </c>
       <c r="G517" s="13"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="7">
         <v>368</v>
       </c>
@@ -14414,7 +14427,7 @@
       </c>
       <c r="G518" s="13"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="7">
         <v>679</v>
       </c>
@@ -14436,8 +14449,10 @@
       <c r="G519" s="10">
         <v>173.5</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H519" s="11"/>
+      <c r="I519" s="11"/>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="7">
         <v>562</v>
       </c>
@@ -14458,7 +14473,7 @@
       </c>
       <c r="G520" s="13"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="7">
         <v>418</v>
       </c>
@@ -14479,7 +14494,7 @@
       </c>
       <c r="G521" s="13"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="7">
         <v>809</v>
       </c>
@@ -14500,7 +14515,7 @@
       </c>
       <c r="G522" s="13"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="7">
         <v>1076</v>
       </c>
@@ -14521,7 +14536,7 @@
       </c>
       <c r="G523" s="13"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="7">
         <v>1090</v>
       </c>
@@ -14542,7 +14557,7 @@
       </c>
       <c r="G524" s="13"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="7">
         <v>730</v>
       </c>
@@ -14563,7 +14578,7 @@
       </c>
       <c r="G525" s="13"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="7">
         <v>437</v>
       </c>
@@ -14584,7 +14599,7 @@
       </c>
       <c r="G526" s="13"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="7">
         <v>438</v>
       </c>
@@ -14605,7 +14620,7 @@
       </c>
       <c r="G527" s="13"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="7">
         <v>631</v>
       </c>
@@ -26163,7 +26178,9 @@
       <c r="F1077" s="9">
         <v>182.24</v>
       </c>
-      <c r="G1077" s="13"/>
+      <c r="G1077" s="13">
+        <v>152.75</v>
+      </c>
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1078" s="7">
@@ -30699,11 +30716,7 @@
       <c r="F1301" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1287">
-    <sortState ref="A2:F1287">
-      <sortCondition ref="C1:C1287"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:H1287" xr:uid="{7DB6F9F6-92B8-4C15-8AEA-665943A9AF65}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
